--- a/data_analysis_tpch.xlsx
+++ b/data_analysis_tpch.xlsx
@@ -8,29 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a18687/Documents/Code/tpch-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57ECD851-75D7-344F-9714-A56326AA75E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343944FC-28E7-3D47-9FDC-89E5CEC70FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="600" windowWidth="28800" windowHeight="16380" activeTab="5" xr2:uid="{886EA6A0-5D60-184B-9F8E-BE7191556824}"/>
+    <workbookView xWindow="20" yWindow="620" windowWidth="28800" windowHeight="16380" activeTab="6" xr2:uid="{886EA6A0-5D60-184B-9F8E-BE7191556824}"/>
   </bookViews>
   <sheets>
     <sheet name="annual_revenue" sheetId="7" r:id="rId1"/>
     <sheet name="shipmode_analysis" sheetId="8" r:id="rId2"/>
-    <sheet name="delivery_delay_analysis" sheetId="11" r:id="rId3"/>
-    <sheet name="top_customers" sheetId="10" r:id="rId4"/>
-    <sheet name="top_suppliers" sheetId="9" r:id="rId5"/>
-    <sheet name="Dashboard" sheetId="6" r:id="rId6"/>
+    <sheet name="Shipment Optimization" sheetId="12" r:id="rId3"/>
+    <sheet name="delivery_delay_analysis" sheetId="11" r:id="rId4"/>
+    <sheet name="top_customers" sheetId="10" r:id="rId5"/>
+    <sheet name="top_suppliers" sheetId="9" r:id="rId6"/>
+    <sheet name="Dashboard" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Dashboard!$G$8:$G$14</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Dashboard!$H$7</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Dashboard!$H$8:$H$14</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Dashboard!$G$8:$G$14</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Dashboard!$H$7</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Dashboard!$H$8:$H$14</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Dashboard!$G$8:$G$14</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Dashboard!$H$7</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Dashboard!$H$8:$H$14</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">annual_revenue!$A$1:$B$8</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">shipmode_analysis!$A$1:$C$8</definedName>
-    <definedName name="ExternalData_1" localSheetId="4" hidden="1">top_suppliers!$A$1:$D$6</definedName>
-    <definedName name="ExternalData_2" localSheetId="3" hidden="1">top_customers!$A$1:$C$11</definedName>
-    <definedName name="ExternalData_3" localSheetId="2" hidden="1">delivery_delay_analysis!$A$1:$C$8</definedName>
+    <definedName name="ExternalData_1" localSheetId="5" hidden="1">top_suppliers!$A$1:$D$6</definedName>
+    <definedName name="ExternalData_2" localSheetId="4" hidden="1">top_customers!$A$1:$C$11</definedName>
+    <definedName name="ExternalData_3" localSheetId="3" hidden="1">delivery_delay_analysis!$A$1:$C$8</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId7"/>
-    <pivotCache cacheId="10" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -72,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="82">
   <si>
     <t>year</t>
   </si>
@@ -203,9 +213,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>TOTAL_REVENUE</t>
-  </si>
-  <si>
     <t>YoY Growth %</t>
   </si>
   <si>
@@ -235,18 +242,112 @@
   <si>
     <t>Min</t>
   </si>
+  <si>
+    <t>97-98</t>
+  </si>
+  <si>
+    <t>92-93</t>
+  </si>
+  <si>
+    <t>93-94</t>
+  </si>
+  <si>
+    <t>94-95</t>
+  </si>
+  <si>
+    <t>95-96</t>
+  </si>
+  <si>
+    <t>96-97</t>
+  </si>
+  <si>
+    <t>Growth %</t>
+  </si>
+  <si>
+    <t>Expected Revenue?</t>
+  </si>
+  <si>
+    <t>TOTAL REVENUE</t>
+  </si>
+  <si>
+    <t>EXPECTED REVENUE</t>
+  </si>
+  <si>
+    <t>total_delay_days</t>
+  </si>
+  <si>
+    <t>impact</t>
+  </si>
+  <si>
+    <t>COEFFICIENT OF VARIABILITY</t>
+  </si>
+  <si>
+    <t>MEAN</t>
+  </si>
+  <si>
+    <t>delay_impact</t>
+  </si>
+  <si>
+    <t>revenue_per_shipment</t>
+  </si>
+  <si>
+    <t>risk_adjusted_revenue</t>
+  </si>
+  <si>
+    <t>optimization_score</t>
+  </si>
+  <si>
+    <t>Delay impact averages 14.29% with 33% variability, indicating uneven operational risk across shipping modes.</t>
+  </si>
+  <si>
+    <t>Revenue per shipment is tightly clustered (~33.8K–34.3K), showing minimal pricing differentiation.</t>
+  </si>
+  <si>
+    <t>Higher delay exposure does not generate higher revenue, weakening the risk-return tradeoff in certain channels.</t>
+  </si>
+  <si>
+    <t>REG AIR demonstrates the strongest risk-adjusted performance with the lowest delay impact (6.29%).</t>
+  </si>
+  <si>
+    <t>FOB shows the weakest profile, combining the highest delay exposure (19.38%) with no revenue premium.</t>
+  </si>
+  <si>
+    <t>Performance variability is driven by operational inefficiency rather than revenue strategy.</t>
+  </si>
+  <si>
+    <t>rank by 
+operational efficiency</t>
+  </si>
+  <si>
+    <t>risk
+adjusted
+revenue</t>
+  </si>
+  <si>
+    <t>revenue 
+per 
+shipment</t>
+  </si>
+  <si>
+    <t>total 
+delay 
+impact</t>
+  </si>
+  <si>
+    <t>STDEV</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="4">
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="168" formatCode="0.000%"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
-    <numFmt numFmtId="171" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -275,8 +376,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,8 +412,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -298,48 +439,127 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="28">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -348,6 +568,152 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <fill>
@@ -378,10 +744,25 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1140,6 +1521,366 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
+              <a:t>Number of Delayed Shipments and Total Days Delayed</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>delivery_delay_analysis!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>delayed_count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>delivery_delay_analysis!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>TRUCK</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FOB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAIL</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RAIL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SHIP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>REG AIR</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AIR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>delivery_delay_analysis!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4426</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4418</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4386</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4321</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4302</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC36-F349-8E08-AE411CF5B8C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1705237952"/>
+        <c:axId val="1705236608"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1705237952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1705236608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1705236608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1705237952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="108"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="8"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
               <a:t>Total Revenue by Year</a:t>
             </a:r>
           </a:p>
@@ -1426,332 +2167,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1702065728"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="108"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="8"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Average Delay in Delivery per Ship Mode</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>delivery_delay_analysis!$A$2:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>TRUCK</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FOB</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MAIL</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>RAIL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>SHIP</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>REG AIR</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>AIR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>delivery_delay_analysis!$C$2:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.1499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.21</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.88</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.18</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A684-D24B-BC8E-22F73D4A1134}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1625675904"/>
-        <c:axId val="1648055104"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1625675904"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1648055104"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1648055104"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1625675904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1996,6 +2411,66 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -2006,7 +2481,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Dashboard!$M$5</c:f>
+              <c:f>Dashboard!$R$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2027,6 +2502,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8D8E-DE46-BA8E-28A1038B7A20}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2040,6 +2520,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8D8E-DE46-BA8E-28A1038B7A20}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2053,6 +2538,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-8D8E-DE46-BA8E-28A1038B7A20}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2066,6 +2556,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-8D8E-DE46-BA8E-28A1038B7A20}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2079,6 +2574,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-8D8E-DE46-BA8E-28A1038B7A20}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2120,7 +2620,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Dashboard!$L$6:$L$11</c:f>
+              <c:f>Dashboard!$Q$6:$Q$11</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2143,7 +2643,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dashboard!$M$6:$M$11</c:f>
+              <c:f>Dashboard!$R$6:$R$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2281,6 +2781,890 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="108"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="8"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Number of Delayed Shipments and Total Days Delayed</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11876678973045814"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>delivery_delay_analysis!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>delayed_count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:shade val="76000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>delivery_delay_analysis!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>TRUCK</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FOB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAIL</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RAIL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SHIP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>REG AIR</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AIR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>delivery_delay_analysis!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4426</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4418</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4386</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4321</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4302</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E575-DC46-842E-974A4EE4B877}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1705237952"/>
+        <c:axId val="1705236608"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>delivery_delay_analysis!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>avg_delay_days</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>delivery_delay_analysis!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>TRUCK</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FOB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAIL</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RAIL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SHIP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>REG AIR</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AIR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>delivery_delay_analysis!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5089.8999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5831.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5307.0599999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3111.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3785.76</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1892.88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5074</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E575-DC46-842E-974A4EE4B877}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1705161856"/>
+        <c:axId val="1779224960"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1705237952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1705236608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1705236608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1705237952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1779224960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1705161856"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1705161856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1779224960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="108"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="8"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ship modes over mean total delay</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> impact</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$H$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total 
+delay 
+impact</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$G$8:$G$14</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>REG AIR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TRUCK</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RAIL</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SHIP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MAIL</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FOB</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AIR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$H$8:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.2902093812141777E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16914192515871074</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10338529758929806</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12580418762428355</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17635834600538072</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19379459585916484</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16861355395102032</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B5EB-EE4B-810A-115ECCB0D35E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1454038463"/>
+        <c:axId val="1454039807"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1454038463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1454039807"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1454039807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1454038463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2379,6 +3763,18 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
+  <a:schemeClr val="accent6"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
+  <a:schemeClr val="accent6"/>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3399,7 +4795,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3507,11 +4903,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3522,11 +4913,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3558,9 +4944,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3915,7 +5298,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4023,6 +5406,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4033,6 +5421,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4064,6 +5457,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4920,20 +6316,1026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>793750</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>27215</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>199571</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9072</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4965,16 +7367,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>143510</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>650240</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4994,6 +7396,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66040</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{099EEA5F-0EBE-EEEC-C74C-0B102B474A80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5044,51 +7482,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>11441</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>157433</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC9B8EE5-2435-D140-87D6-B2A818185F9D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>11442</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>34325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>2093784</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>164528</xdr:rowOff>
@@ -5110,10 +7510,134 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>663605</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>150091</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>658092</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>23646</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13434E64-7141-4A46-99AF-B1AA0B5773A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>866551</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>138546</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>23092</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69B2CCAF-3584-76DA-4153-4B6CAD79A3D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>914176</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>155865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>186171</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>155865</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CD06022-948B-B634-6600-D9893B5B9AE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10677301" y="6045490"/>
+          <a:ext cx="3018495" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5265,8 +7789,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C6C5EE50-EA1E-974F-910C-6F980FEA3A7D}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Average" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Region">
-  <location ref="L5:M11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C6C5EE50-EA1E-974F-910C-6F980FEA3A7D}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Average" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Region">
+  <location ref="Q5:R11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
       <items count="6">
@@ -5322,12 +7846,77 @@
   <dataFields count="1">
     <dataField name="Average of Revenue % by Region" fld="4" subtotal="average" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
-  <chartFormats count="1">
+  <formats count="1">
+    <format dxfId="13">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="6">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -5346,7 +7935,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BB72707E-526B-7845-8850-8871A7906F6A}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Year">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BB72707E-526B-7845-8850-8871A7906F6A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Year">
   <location ref="A7:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -5399,16 +7988,16 @@
     <dataField name="Sum of total_revenue" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="6">
+    <format dxfId="17">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="15">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5449,11 +8038,13 @@
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_3" connectionId="2" xr16:uid="{5BA108B3-FE01-0F46-91E1-A9A6B93D0CED}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="4">
-    <queryTableFields count="3">
+  <queryTableRefresh nextId="6" unboundColumnsRight="2">
+    <queryTableFields count="5">
       <queryTableField id="1" name="ship_mode" tableColumnId="1"/>
       <queryTableField id="2" name="delayed_count" tableColumnId="2"/>
       <queryTableField id="3" name="avg_delay_days" tableColumnId="3"/>
+      <queryTableField id="4" dataBound="0" tableColumnId="4"/>
+      <queryTableField id="5" dataBound="0" tableColumnId="5"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -5500,7 +8091,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{753FA9CC-DBE5-894C-9125-5488D8123EE6}" name="shipmode_analysis" displayName="shipmode_analysis" ref="A1:C8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:C8" xr:uid="{753FA9CC-DBE5-894C-9125-5488D8123EE6}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5E7EE9D0-5E51-AF42-9671-119AC5F5D0BD}" uniqueName="1" name="ship_mode" queryTableFieldId="1" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{5E7EE9D0-5E51-AF42-9671-119AC5F5D0BD}" uniqueName="1" name="ship_mode" queryTableFieldId="1" dataDxfId="27"/>
     <tableColumn id="2" xr3:uid="{C77FD124-EE00-474A-9EFA-F40AAAA9A4A8}" uniqueName="2" name="shipment_count" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{8E338C52-3199-2F4E-9478-4129ECB916E6}" uniqueName="3" name="total_revenue" queryTableFieldId="3"/>
   </tableColumns>
@@ -5509,12 +8100,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1DD6A7EE-AF9F-4945-B475-29906C0048BA}" name="delivery_delay_analysis" displayName="delivery_delay_analysis" ref="A1:C8" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C8" xr:uid="{1DD6A7EE-AF9F-4945-B475-29906C0048BA}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{52929839-0237-0942-B1FA-FA9CC7618657}" uniqueName="1" name="ship_mode" queryTableFieldId="1" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1DD6A7EE-AF9F-4945-B475-29906C0048BA}" name="delivery_delay_analysis" displayName="delivery_delay_analysis" ref="A1:E8" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E8" xr:uid="{1DD6A7EE-AF9F-4945-B475-29906C0048BA}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{52929839-0237-0942-B1FA-FA9CC7618657}" uniqueName="1" name="ship_mode" queryTableFieldId="1" dataDxfId="26"/>
     <tableColumn id="2" xr3:uid="{CB0CABB5-039E-5B4B-92F8-87F6B836B3AB}" uniqueName="2" name="delayed_count" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{BDB1200A-C6F9-D949-9F4D-CB480BBAEF37}" uniqueName="3" name="avg_delay_days" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{CAED915A-2363-4F49-8029-BA213002A853}" uniqueName="4" name="total_delay_days" queryTableFieldId="4" dataDxfId="25">
+      <calculatedColumnFormula>delivery_delay_analysis[[#This Row],[delayed_count]]*delivery_delay_analysis[[#This Row],[avg_delay_days]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{12508CE1-32BD-7E48-B01B-BC1CC8F02501}" uniqueName="5" name="impact" queryTableFieldId="5" dataDxfId="24">
+      <calculatedColumnFormula>delivery_delay_analysis[[#This Row],[total_delay_days]]/SUM(delivery_delay_analysis[total_delay_days])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5525,7 +8122,7 @@
   <autoFilter ref="A1:C11" xr:uid="{E048DF31-46A5-CE44-9AA5-FE3CA98DC0E1}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{44592B59-65AE-C04C-A0C4-2F05805D4334}" uniqueName="1" name="C_CUSTKEY" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{CB96DBEF-21E5-0D47-AA42-1B7D71CBDD19}" uniqueName="2" name="C_NAME" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{CB96DBEF-21E5-0D47-AA42-1B7D71CBDD19}" uniqueName="2" name="C_NAME" queryTableFieldId="2" dataDxfId="23"/>
     <tableColumn id="3" xr3:uid="{1CD117CB-A688-3E4B-B4BC-A821C1AB3CF5}" uniqueName="3" name="total_spent" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5536,17 +8133,69 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{48E6C0B9-5EF8-8C42-BC22-1E7F4C4D3E34}" name="top_suppliers" displayName="top_suppliers" ref="A1:E7" tableType="queryTable" totalsRowCount="1">
   <autoFilter ref="A1:E6" xr:uid="{48E6C0B9-5EF8-8C42-BC22-1E7F4C4D3E34}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{FD9588B4-028E-454F-937A-ADA4CF9CED49}" uniqueName="1" name="region" queryTableFieldId="1" dataDxfId="10" totalsRowDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{36CC561B-19F6-1B40-B09B-FCAF702E7170}" uniqueName="2" name="supplier" queryTableFieldId="2" dataDxfId="9" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{FD9588B4-028E-454F-937A-ADA4CF9CED49}" uniqueName="1" name="region" queryTableFieldId="1" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{36CC561B-19F6-1B40-B09B-FCAF702E7170}" uniqueName="2" name="supplier" queryTableFieldId="2" dataDxfId="20" totalsRowDxfId="19"/>
     <tableColumn id="3" xr3:uid="{8D8677AB-3330-F942-A193-95809B574D14}" uniqueName="3" name="revenue" totalsRowFunction="custom" queryTableFieldId="3">
       <totalsRowFormula>SUM(top_suppliers[revenue])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{C11E6F8A-3335-C845-BD1F-52B677923885}" uniqueName="4" name="rank" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{282853E3-FC0A-F844-9F06-3C01BD914474}" uniqueName="5" name="Revenue % by Region" queryTableFieldId="5" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{282853E3-FC0A-F844-9F06-3C01BD914474}" uniqueName="5" name="Revenue % by Region" queryTableFieldId="5" dataDxfId="18">
       <calculatedColumnFormula>C2/top_suppliers[[#Totals],[revenue]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{801B01E8-E277-C447-B28F-54E50E0B5DD8}" name="Table6" displayName="Table6" ref="D5:E11" totalsRowShown="0">
+  <autoFilter ref="D5:E11" xr:uid="{801B01E8-E277-C447-B28F-54E50E0B5DD8}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{D8F39025-0878-384C-A3AA-54521D664F5E}" name="Year" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{223B1F11-A89E-A846-8B31-EC1E428A9BE0}" name="Growth %" dataDxfId="11">
+      <calculatedColumnFormula>annual_revenue!B18</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{88E250A0-7F75-3743-9AFB-A5D1EA9F6770}" name="Table7" displayName="Table7" ref="D16:E23" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="D16:E23" xr:uid="{88E250A0-7F75-3743-9AFB-A5D1EA9F6770}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{A8D34284-A5C3-2E44-8E40-9265D82428DB}" name="Year" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{286E5145-79A7-6E46-AC11-7FFADF8E0930}" name="Expected Revenue?" dataDxfId="8">
+      <calculatedColumnFormula>IF(annual_revenue!B2 &gt; Dashboard!$D$14, "YES", "NO")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3C25C563-2642-994D-995D-CAF841BB90EA}" name="Table8" displayName="Table8" ref="G7:L17" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
+  <autoFilter ref="G7:L17" xr:uid="{3C25C563-2642-994D-995D-CAF841BB90EA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G8:L17">
+    <sortCondition ref="L7:L17"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{C9C3DE5E-BC86-A64E-8C55-E159BD6F1EB3}" name="ship_mode" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{7F6ED71F-4B80-DD44-99EE-4D67A3F50598}" name="total _x000a_delay _x000a_impact" dataDxfId="4">
+      <calculatedColumnFormula>delivery_delay_analysis!E2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{611FC2BF-19D8-5B41-8080-03938B7F5406}" name="revenue _x000a_per _x000a_shipment" dataDxfId="2">
+      <calculatedColumnFormula>'Shipment Optimization'!E2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{D108E06D-9E52-A947-8DAB-81DC41AC1CCB}" name="risk_x000a_adjusted_x000a_revenue" dataDxfId="1">
+      <calculatedColumnFormula>'Shipment Optimization'!F2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{A19975DE-1E2F-8440-88B8-5DF17CBCBE09}" name="optimization_score" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{5E610DB9-5CA6-F04D-945D-D984145E6DEB}" name="rank by _x000a_operational efficiency" dataDxfId="0">
+      <calculatedColumnFormula>'Shipment Optimization'!H2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -5870,7 +8519,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5945,41 +8594,41 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="9">
+      <c r="B18" s="5">
         <f>(B3-B2)/B2</f>
         <v>2.613620986000809E-2</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="9">
-        <f t="shared" ref="B19:B24" si="0">(B4-B3)/B3</f>
+      <c r="B19" s="5">
+        <f t="shared" ref="B19:B23" si="0">(B4-B3)/B3</f>
         <v>-8.6566622719487626E-4</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="9">
+      <c r="B20" s="5">
         <f t="shared" si="0"/>
         <v>-3.9081744684391094E-2</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="9">
+      <c r="B21" s="5">
         <f t="shared" si="0"/>
         <v>2.6382319254042327E-2</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="9">
+      <c r="B22" s="5">
         <f t="shared" si="0"/>
         <v>-1.2617378932811828E-2</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="9">
+      <c r="B23" s="5">
         <f t="shared" si="0"/>
         <v>-0.4155534786218667</v>
       </c>
@@ -5998,7 +8647,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6020,7 +8669,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
@@ -6031,7 +8680,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
@@ -6042,7 +8691,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
@@ -6053,7 +8702,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
@@ -6064,7 +8713,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
@@ -6075,7 +8724,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7">
@@ -6086,7 +8735,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8">
@@ -6105,11 +8754,295 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0E27F6-CBF5-3645-B4FC-E03A130B32AC}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <f>_xlfn.XLOOKUP(A2, shipmode_analysis[ship_mode], shipmode_analysis[shipment_count])</f>
+        <v>8616</v>
+      </c>
+      <c r="C2">
+        <f>_xlfn.XLOOKUP(A2, shipmode_analysis[ship_mode], shipmode_analysis[total_revenue])</f>
+        <v>291508525.39999998</v>
+      </c>
+      <c r="D2">
+        <f>_xlfn.XLOOKUP(A2,delivery_delay_analysis[ship_mode],delivery_delay_analysis[impact])</f>
+        <v>6.2902093812141777E-2</v>
+      </c>
+      <c r="E2">
+        <f>C2 / B2</f>
+        <v>33833.394312906217</v>
+      </c>
+      <c r="F2">
+        <f>C2 * (1 - D2)</f>
+        <v>273172028.78825009</v>
+      </c>
+      <c r="G2">
+        <f>(C2*0.5) + (F2*0.3) + (E2*0.2)</f>
+        <v>227712638.01533759</v>
+      </c>
+      <c r="H2">
+        <f>RANK(G2, $G$2:$G$8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <f>_xlfn.XLOOKUP(A3, shipmode_analysis[ship_mode], shipmode_analysis[shipment_count])</f>
+        <v>8710</v>
+      </c>
+      <c r="C3">
+        <f>_xlfn.XLOOKUP(A3, shipmode_analysis[ship_mode], shipmode_analysis[total_revenue])</f>
+        <v>297596971.05000001</v>
+      </c>
+      <c r="D3">
+        <f>_xlfn.XLOOKUP(A3,delivery_delay_analysis[ship_mode],delivery_delay_analysis[impact])</f>
+        <v>0.16914192515871074</v>
+      </c>
+      <c r="E3">
+        <f>C3 / B3</f>
+        <v>34167.275665901267</v>
+      </c>
+      <c r="F3">
+        <f>C3 * (1 - D3)</f>
+        <v>247260846.4452019</v>
+      </c>
+      <c r="G3">
+        <f>(C3*0.5) + (F3*0.3) + (E3*0.2)</f>
+        <v>222983572.91369376</v>
+      </c>
+      <c r="H3">
+        <f>RANK(G3, $G$2:$G$8)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <f>_xlfn.XLOOKUP(A4, shipmode_analysis[ship_mode], shipmode_analysis[shipment_count])</f>
+        <v>8566</v>
+      </c>
+      <c r="C4">
+        <f>_xlfn.XLOOKUP(A4, shipmode_analysis[ship_mode], shipmode_analysis[total_revenue])</f>
+        <v>289935768.19999999</v>
+      </c>
+      <c r="D4">
+        <f>_xlfn.XLOOKUP(A4,delivery_delay_analysis[ship_mode],delivery_delay_analysis[impact])</f>
+        <v>0.10338529758929806</v>
+      </c>
+      <c r="E4">
+        <f>C4 / B4</f>
+        <v>33847.276231613352</v>
+      </c>
+      <c r="F4">
+        <f>C4 * (1 - D4)</f>
+        <v>259960672.52286124</v>
+      </c>
+      <c r="G4">
+        <f>(C4*0.5) + (F4*0.3) + (E4*0.2)</f>
+        <v>222962855.3121047</v>
+      </c>
+      <c r="H4">
+        <f>RANK(G4, $G$2:$G$8)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <f>_xlfn.XLOOKUP(A5, shipmode_analysis[ship_mode], shipmode_analysis[shipment_count])</f>
+        <v>8482</v>
+      </c>
+      <c r="C5">
+        <f>_xlfn.XLOOKUP(A5, shipmode_analysis[ship_mode], shipmode_analysis[total_revenue])</f>
+        <v>290685560.30000001</v>
+      </c>
+      <c r="D5">
+        <f>_xlfn.XLOOKUP(A5,delivery_delay_analysis[ship_mode],delivery_delay_analysis[impact])</f>
+        <v>0.12580418762428355</v>
+      </c>
+      <c r="E5">
+        <f>C5 / B5</f>
+        <v>34270.874829049753</v>
+      </c>
+      <c r="F5">
+        <f>C5 * (1 - D5)</f>
+        <v>254116099.53234881</v>
+      </c>
+      <c r="G5">
+        <f>(C5*0.5) + (F5*0.3) + (E5*0.2)</f>
+        <v>221584464.18467045</v>
+      </c>
+      <c r="H5">
+        <f>RANK(G5, $G$2:$G$8)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f>_xlfn.XLOOKUP(A6, shipmode_analysis[ship_mode], shipmode_analysis[shipment_count])</f>
+        <v>8669</v>
+      </c>
+      <c r="C6">
+        <f>_xlfn.XLOOKUP(A6, shipmode_analysis[ship_mode], shipmode_analysis[total_revenue])</f>
+        <v>295057347.73000002</v>
+      </c>
+      <c r="D6">
+        <f>_xlfn.XLOOKUP(A6,delivery_delay_analysis[ship_mode],delivery_delay_analysis[impact])</f>
+        <v>0.17635834600538072</v>
+      </c>
+      <c r="E6">
+        <f>C6 / B6</f>
+        <v>34035.915068635368</v>
+      </c>
+      <c r="F6">
+        <f>C6 * (1 - D6)</f>
+        <v>243021521.90760276</v>
+      </c>
+      <c r="G6">
+        <f>(C6*0.5) + (F6*0.3) + (E6*0.2)</f>
+        <v>220441937.62029457</v>
+      </c>
+      <c r="H6">
+        <f>RANK(G6, $G$2:$G$8)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f>_xlfn.XLOOKUP(A7, shipmode_analysis[ship_mode], shipmode_analysis[shipment_count])</f>
+        <v>8641</v>
+      </c>
+      <c r="C7">
+        <f>_xlfn.XLOOKUP(A7, shipmode_analysis[ship_mode], shipmode_analysis[total_revenue])</f>
+        <v>292231642.52999997</v>
+      </c>
+      <c r="D7">
+        <f>_xlfn.XLOOKUP(A7,delivery_delay_analysis[ship_mode],delivery_delay_analysis[impact])</f>
+        <v>0.19379459585916484</v>
+      </c>
+      <c r="E7">
+        <f>C7 / B7</f>
+        <v>33819.192515912509</v>
+      </c>
+      <c r="F7">
+        <f>C7 * (1 - D7)</f>
+        <v>235598729.46863872</v>
+      </c>
+      <c r="G7">
+        <f>(C7*0.5) + (F7*0.3) + (E7*0.2)</f>
+        <v>216802203.94409478</v>
+      </c>
+      <c r="H7">
+        <f>RANK(G7, $G$2:$G$8)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <f>_xlfn.XLOOKUP(A8, shipmode_analysis[ship_mode], shipmode_analysis[shipment_count])</f>
+        <v>8491</v>
+      </c>
+      <c r="C8">
+        <f>_xlfn.XLOOKUP(A8, shipmode_analysis[ship_mode], shipmode_analysis[total_revenue])</f>
+        <v>288119126.88</v>
+      </c>
+      <c r="D8">
+        <f>_xlfn.XLOOKUP(A8,delivery_delay_analysis[ship_mode],delivery_delay_analysis[impact])</f>
+        <v>0.16861355395102032</v>
+      </c>
+      <c r="E8">
+        <f>C8 / B8</f>
+        <v>33932.296181839592</v>
+      </c>
+      <c r="F8">
+        <f>C8 * (1 - D8)</f>
+        <v>239538336.93549827</v>
+      </c>
+      <c r="G8">
+        <f>(C8*0.5) + (F8*0.3) + (E8*0.2)</f>
+        <v>215927850.97988585</v>
+      </c>
+      <c r="H8">
+        <f>RANK(G8, $G$2:$G$8)</f>
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H8">
+    <sortCondition ref="H2:H8"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC6F2F8-78CC-2B42-92FE-89C69D5ECF6A}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6119,7 +9052,7 @@
     <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -6129,9 +9062,15 @@
       <c r="C1" t="s">
         <v>39</v>
       </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
@@ -6140,9 +9079,17 @@
       <c r="C2">
         <v>1.1499999999999999</v>
       </c>
+      <c r="D2">
+        <f>delivery_delay_analysis[[#This Row],[delayed_count]]*delivery_delay_analysis[[#This Row],[avg_delay_days]]</f>
+        <v>5089.8999999999996</v>
+      </c>
+      <c r="E2" s="8">
+        <f>delivery_delay_analysis[[#This Row],[total_delay_days]]/SUM(delivery_delay_analysis[total_delay_days])</f>
+        <v>0.16914192515871074</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
@@ -6151,9 +9098,17 @@
       <c r="C3">
         <v>1.32</v>
       </c>
+      <c r="D3">
+        <f>delivery_delay_analysis[[#This Row],[delayed_count]]*delivery_delay_analysis[[#This Row],[avg_delay_days]]</f>
+        <v>5831.76</v>
+      </c>
+      <c r="E3" s="8">
+        <f>delivery_delay_analysis[[#This Row],[total_delay_days]]/SUM(delivery_delay_analysis[total_delay_days])</f>
+        <v>0.19379459585916484</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
@@ -6162,9 +9117,17 @@
       <c r="C4">
         <v>1.21</v>
       </c>
+      <c r="D4">
+        <f>delivery_delay_analysis[[#This Row],[delayed_count]]*delivery_delay_analysis[[#This Row],[avg_delay_days]]</f>
+        <v>5307.0599999999995</v>
+      </c>
+      <c r="E4" s="8">
+        <f>delivery_delay_analysis[[#This Row],[total_delay_days]]/SUM(delivery_delay_analysis[total_delay_days])</f>
+        <v>0.17635834600538072</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
@@ -6173,9 +9136,17 @@
       <c r="C5">
         <v>0.72</v>
       </c>
+      <c r="D5">
+        <f>delivery_delay_analysis[[#This Row],[delayed_count]]*delivery_delay_analysis[[#This Row],[avg_delay_days]]</f>
+        <v>3111.12</v>
+      </c>
+      <c r="E5" s="8">
+        <f>delivery_delay_analysis[[#This Row],[total_delay_days]]/SUM(delivery_delay_analysis[total_delay_days])</f>
+        <v>0.10338529758929806</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6">
@@ -6184,9 +9155,17 @@
       <c r="C6">
         <v>0.88</v>
       </c>
+      <c r="D6">
+        <f>delivery_delay_analysis[[#This Row],[delayed_count]]*delivery_delay_analysis[[#This Row],[avg_delay_days]]</f>
+        <v>3785.76</v>
+      </c>
+      <c r="E6" s="8">
+        <f>delivery_delay_analysis[[#This Row],[total_delay_days]]/SUM(delivery_delay_analysis[total_delay_days])</f>
+        <v>0.12580418762428355</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
@@ -6195,9 +9174,17 @@
       <c r="C7">
         <v>0.44</v>
       </c>
+      <c r="D7">
+        <f>delivery_delay_analysis[[#This Row],[delayed_count]]*delivery_delay_analysis[[#This Row],[avg_delay_days]]</f>
+        <v>1892.88</v>
+      </c>
+      <c r="E7" s="8">
+        <f>delivery_delay_analysis[[#This Row],[total_delay_days]]/SUM(delivery_delay_analysis[total_delay_days])</f>
+        <v>6.2902093812141777E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
@@ -6206,9 +9193,17 @@
       <c r="C8">
         <v>1.18</v>
       </c>
+      <c r="D8">
+        <f>delivery_delay_analysis[[#This Row],[delayed_count]]*delivery_delay_analysis[[#This Row],[avg_delay_days]]</f>
+        <v>5074</v>
+      </c>
+      <c r="E8" s="8">
+        <f>delivery_delay_analysis[[#This Row],[total_delay_days]]/SUM(delivery_delay_analysis[total_delay_days])</f>
+        <v>0.16861355395102032</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" s="11">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="7">
         <f>AVERAGE(delivery_delay_analysis[avg_delay_days])</f>
         <v>0.98571428571428565</v>
       </c>
@@ -6222,7 +9217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F44DC0-4869-F14A-B0DD-6FF36A810F7F}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -6250,7 +9245,7 @@
       <c r="A2">
         <v>1489</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>28</v>
       </c>
       <c r="C2">
@@ -6261,7 +9256,7 @@
       <c r="A3">
         <v>214</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>29</v>
       </c>
       <c r="C3">
@@ -6272,7 +9267,7 @@
       <c r="A4">
         <v>73</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>30</v>
       </c>
       <c r="C4">
@@ -6283,7 +9278,7 @@
       <c r="A5">
         <v>1246</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>31</v>
       </c>
       <c r="C5">
@@ -6294,7 +9289,7 @@
       <c r="A6">
         <v>1396</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>32</v>
       </c>
       <c r="C6">
@@ -6305,7 +9300,7 @@
       <c r="A7">
         <v>643</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>33</v>
       </c>
       <c r="C7">
@@ -6316,7 +9311,7 @@
       <c r="A8">
         <v>1318</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>34</v>
       </c>
       <c r="C8">
@@ -6327,7 +9322,7 @@
       <c r="A9">
         <v>1150</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>35</v>
       </c>
       <c r="C9">
@@ -6338,7 +9333,7 @@
       <c r="A10">
         <v>898</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>36</v>
       </c>
       <c r="C10">
@@ -6349,7 +9344,7 @@
       <c r="A11">
         <v>943</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>37</v>
       </c>
       <c r="C11">
@@ -6364,7 +9359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8E9831-5F11-1B44-BC8D-FC85C7F260C5}">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -6394,14 +9389,14 @@
         <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>16</v>
       </c>
       <c r="C2">
@@ -6410,16 +9405,16 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="8">
         <f>C2/top_suppliers[[#Totals],[revenue]]</f>
         <v>0.19751363284002285</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3">
@@ -6428,16 +9423,16 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="8">
         <f>C3/top_suppliers[[#Totals],[revenue]]</f>
         <v>0.19634960250503578</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4">
@@ -6446,16 +9441,16 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="8">
         <f>C4/top_suppliers[[#Totals],[revenue]]</f>
         <v>0.20171703780607791</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5">
@@ -6464,16 +9459,16 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="8">
         <f>C5/top_suppliers[[#Totals],[revenue]]</f>
         <v>0.20741256949973183</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6">
@@ -6482,14 +9477,12 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="8">
         <f>C6/top_suppliers[[#Totals],[revenue]]</f>
         <v>0.19700715734913163</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
       <c r="C7">
         <f>SUM(top_suppliers[revenue])</f>
         <v>110641326.2</v>
@@ -6503,239 +9496,573 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8F9480-65B8-B04C-87E9-0C01DFBD61E3}">
-  <dimension ref="A4:N15"/>
+  <dimension ref="A4:S40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.5" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="25.1640625" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="11" max="11" width="0.1640625" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" customWidth="1"/>
+    <col min="13" max="13" width="1.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="D4" s="4" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="D4" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="G4" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="P4" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="K4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
     </row>
-    <row r="5" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+    <row r="5" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22">
         <f>SUM(annual_revenue[total_revenue])</f>
         <v>2045134942.0899999</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="10">
+      <c r="B5" s="22"/>
+      <c r="D5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="23">
+        <f>AVERAGE(delivery_delay_analysis[avg_delay_days])</f>
+        <v>0.98571428571428565</v>
+      </c>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="Q5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="D6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="6">
         <f>annual_revenue!B18</f>
         <v>2.613620986000809E-2</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="G5" s="12">
-        <f>AVERAGE(delivery_delay_analysis[avg_delay_days])</f>
-        <v>0.98571428571428565</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="L5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" t="s">
-        <v>49</v>
+      <c r="Q6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="13">
+        <v>0.19751363284002285</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="D6" s="10">
+    <row r="7" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="6">
         <f>annual_revenue!B19</f>
         <v>-8.6566622719487626E-4</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="L6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" s="13">
-        <v>0.19751363284002285</v>
+      <c r="G7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" s="13">
+        <v>0.19634960250503578</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="10">
+    <row r="8" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1992</v>
+      </c>
+      <c r="B8">
+        <v>308482375.33999997</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="6">
         <f>annual_revenue!B20</f>
         <v>-3.9081744684391094E-2</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="L7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="13">
-        <v>0.19634960250503578</v>
+      <c r="G8" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="13">
+        <f>'Shipment Optimization'!D2</f>
+        <v>6.2902093812141777E-2</v>
+      </c>
+      <c r="I8">
+        <f>'Shipment Optimization'!E2</f>
+        <v>33833.394312906217</v>
+      </c>
+      <c r="J8">
+        <f>'Shipment Optimization'!F2</f>
+        <v>273172028.78825009</v>
+      </c>
+      <c r="L8">
+        <f>'Shipment Optimization'!H2</f>
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="13">
+        <v>0.20171703780607791</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>1992</v>
-      </c>
-      <c r="B8" s="1">
-        <v>308482375.33999997</v>
-      </c>
-      <c r="D8" s="10">
+    <row r="9" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1993</v>
+      </c>
+      <c r="B9">
+        <v>316544935.44</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="6">
         <f>annual_revenue!B21</f>
         <v>2.6382319254042327E-2</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="L8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="13">
-        <v>0.20171703780607791</v>
+      <c r="G9" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="13">
+        <f>'Shipment Optimization'!D3</f>
+        <v>0.16914192515871074</v>
+      </c>
+      <c r="I9">
+        <f>'Shipment Optimization'!E3</f>
+        <v>34167.275665901267</v>
+      </c>
+      <c r="J9">
+        <f>'Shipment Optimization'!F3</f>
+        <v>247260846.4452019</v>
+      </c>
+      <c r="L9">
+        <f>'Shipment Optimization'!H3</f>
+        <v>2</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" s="13">
+        <v>0.20741256949973183</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>1993</v>
-      </c>
-      <c r="B9" s="1">
-        <v>316544935.44</v>
-      </c>
-      <c r="D9" s="10">
+    <row r="10" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1994</v>
+      </c>
+      <c r="B10">
+        <v>316270913.18000001</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="6">
         <f>annual_revenue!B22</f>
         <v>-1.2617378932811828E-2</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="L9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="13">
-        <v>0.20741256949973183</v>
+      <c r="G10" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="13">
+        <f>'Shipment Optimization'!D4</f>
+        <v>0.10338529758929806</v>
+      </c>
+      <c r="I10">
+        <f>'Shipment Optimization'!E4</f>
+        <v>33847.276231613352</v>
+      </c>
+      <c r="J10">
+        <f>'Shipment Optimization'!F4</f>
+        <v>259960672.52286124</v>
+      </c>
+      <c r="L10">
+        <f>'Shipment Optimization'!H4</f>
+        <v>3</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R10" s="13">
+        <v>0.19700715734913163</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>1994</v>
-      </c>
-      <c r="B10" s="1">
-        <v>316270913.18000001</v>
-      </c>
-      <c r="D10" s="10">
+    <row r="11" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>1995</v>
+      </c>
+      <c r="B11">
+        <v>303910494.10000002</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="6">
         <f>annual_revenue!B23</f>
         <v>-0.4155534786218667</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="L10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="13">
-        <v>0.19700715734913163</v>
+      <c r="G11" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="13">
+        <f>'Shipment Optimization'!D5</f>
+        <v>0.12580418762428355</v>
+      </c>
+      <c r="I11">
+        <f>'Shipment Optimization'!E5</f>
+        <v>34270.874829049753</v>
+      </c>
+      <c r="J11">
+        <f>'Shipment Optimization'!F5</f>
+        <v>254116099.53234881</v>
+      </c>
+      <c r="L11">
+        <f>'Shipment Optimization'!H5</f>
+        <v>4</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R11" s="13">
+        <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>1996</v>
+      </c>
+      <c r="B12">
+        <v>311928357.77999997</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="13">
+        <f>'Shipment Optimization'!D6</f>
+        <v>0.17635834600538072</v>
+      </c>
+      <c r="I12">
+        <f>'Shipment Optimization'!E6</f>
+        <v>34035.915068635368</v>
+      </c>
+      <c r="J12">
+        <f>'Shipment Optimization'!F6</f>
+        <v>243021521.90760276</v>
+      </c>
+      <c r="L12">
+        <f>'Shipment Optimization'!H6</f>
+        <v>5</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="R12" s="14" t="str">
+        <f>_xlfn.XLOOKUP(MAX(R6:R10),R6:R10,Q6:Q10)</f>
+        <v>EUROPE</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>1997</v>
+      </c>
+      <c r="B13">
+        <v>307992639.49000001</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="G13" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="13">
+        <f>'Shipment Optimization'!D7</f>
+        <v>0.19379459585916484</v>
+      </c>
+      <c r="I13">
+        <f>'Shipment Optimization'!E7</f>
+        <v>33819.192515912509</v>
+      </c>
+      <c r="J13">
+        <f>'Shipment Optimization'!F7</f>
+        <v>235598729.46863872</v>
+      </c>
+      <c r="L13">
+        <f>'Shipment Optimization'!H7</f>
+        <v>6</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="R13" s="14" t="str">
+        <f>_xlfn.XLOOKUP(MIN(R6:R10),R6:R10,Q6:Q10)</f>
+        <v>AMERICA</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>1998</v>
+      </c>
+      <c r="B14">
+        <v>180005226.75999999</v>
+      </c>
+      <c r="D14" s="20">
+        <v>310000000</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="G14" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="13">
+        <f>'Shipment Optimization'!D8</f>
+        <v>0.16861355395102032</v>
+      </c>
+      <c r="I14">
+        <f>'Shipment Optimization'!E8</f>
+        <v>33932.296181839592</v>
+      </c>
+      <c r="J14">
+        <f>'Shipment Optimization'!F8</f>
+        <v>239538336.93549827</v>
+      </c>
+      <c r="L14">
+        <f>'Shipment Optimization'!H8</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2045134942.0899999</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="16">
+        <f>STDEV(H8:H14)</f>
+        <v>4.7104276066689703E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="D16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="16">
+        <f>SUM(H8:H14) / COUNT(H8:H14)</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D17" s="11">
+        <v>1992</v>
+      </c>
+      <c r="E17" s="12" t="str">
+        <f>IF(annual_revenue!B2 &gt; Dashboard!$D$14, "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="16">
+        <f>H15/H16</f>
+        <v>0.32972993246682791</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D18" s="11">
+        <v>1993</v>
+      </c>
+      <c r="E18" s="12" t="str">
+        <f>IF(annual_revenue!B3 &gt; Dashboard!$D$14, "YES", "NO")</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D19" s="11">
+        <v>1994</v>
+      </c>
+      <c r="E19" s="12" t="str">
+        <f>IF(annual_revenue!B4 &gt; Dashboard!$D$14, "YES", "NO")</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D20" s="11">
         <v>1995</v>
       </c>
-      <c r="B11" s="1">
-        <v>303910494.10000002</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M11" s="13">
-        <v>0.2</v>
+      <c r="E20" s="12" t="str">
+        <f>IF(annual_revenue!B5 &gt; Dashboard!$D$14, "YES", "NO")</f>
+        <v>NO</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+    <row r="21" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D21" s="11">
         <v>1996</v>
       </c>
-      <c r="B12" s="1">
-        <v>311928357.77999997</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="M12" s="15" t="str">
-        <f>_xlfn.XLOOKUP(MAX(M6:M10),M6:M10,L6:L10)</f>
-        <v>EUROPE</v>
+      <c r="E21" s="12" t="str">
+        <f>IF(annual_revenue!B6 &gt; Dashboard!$D$14, "YES", "NO")</f>
+        <v>YES</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+    <row r="22" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D22" s="11">
         <v>1997</v>
       </c>
-      <c r="B13" s="1">
-        <v>307992639.49000001</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="M13" s="15" t="str">
-        <f>_xlfn.XLOOKUP(MIN(M6:M10),M6:M10,L6:L10)</f>
-        <v>AMERICA</v>
+      <c r="E22" s="12" t="str">
+        <f>IF(annual_revenue!B7 &gt; Dashboard!$D$14, "YES", "NO")</f>
+        <v>NO</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+    <row r="23" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D23" s="11">
         <v>1998</v>
       </c>
-      <c r="B14" s="1">
-        <v>180005226.75999999</v>
+      <c r="E23" s="12" t="str">
+        <f>IF(annual_revenue!B8 &gt; Dashboard!$D$14, "YES", "NO")</f>
+        <v>NO</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="8">
-        <v>2045134942.0899999</v>
-      </c>
+    <row r="32" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+    </row>
+    <row r="33" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G33" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+    </row>
+    <row r="34" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G34" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+    </row>
+    <row r="35" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G35" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+    </row>
+    <row r="36" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G36" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+    </row>
+    <row r="37" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G37" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+    </row>
+    <row r="38" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G38" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+    </row>
+    <row r="40" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
+  <mergeCells count="8">
+    <mergeCell ref="P4:S4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="G5:I5"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/data_analysis_tpch.xlsx
+++ b/data_analysis_tpch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a18687/Documents/Code/tpch-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343944FC-28E7-3D47-9FDC-89E5CEC70FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F510EAF0-972D-9543-9507-13418EFCF146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="620" windowWidth="28800" windowHeight="16380" activeTab="6" xr2:uid="{886EA6A0-5D60-184B-9F8E-BE7191556824}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="16380" activeTab="6" xr2:uid="{886EA6A0-5D60-184B-9F8E-BE7191556824}"/>
   </bookViews>
   <sheets>
     <sheet name="annual_revenue" sheetId="7" r:id="rId1"/>
@@ -22,15 +22,6 @@
     <sheet name="Dashboard" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Dashboard!$G$8:$G$14</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Dashboard!$H$7</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Dashboard!$H$8:$H$14</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Dashboard!$G$8:$G$14</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Dashboard!$H$7</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Dashboard!$H$8:$H$14</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Dashboard!$G$8:$G$14</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Dashboard!$H$7</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Dashboard!$H$8:$H$14</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">annual_revenue!$A$1:$B$8</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">shipmode_analysis!$A$1:$C$8</definedName>
     <definedName name="ExternalData_1" localSheetId="5" hidden="1">top_suppliers!$A$1:$D$6</definedName>
@@ -347,7 +338,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="#,##0.00000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -396,6 +387,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="0.79998168889431442"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -523,23 +521,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -549,6 +531,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8184,13 +8182,13 @@
     <tableColumn id="2" xr3:uid="{7F6ED71F-4B80-DD44-99EE-4D67A3F50598}" name="total _x000a_delay _x000a_impact" dataDxfId="4">
       <calculatedColumnFormula>delivery_delay_analysis!E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{611FC2BF-19D8-5B41-8080-03938B7F5406}" name="revenue _x000a_per _x000a_shipment" dataDxfId="2">
+    <tableColumn id="3" xr3:uid="{611FC2BF-19D8-5B41-8080-03938B7F5406}" name="revenue _x000a_per _x000a_shipment" dataDxfId="3">
       <calculatedColumnFormula>'Shipment Optimization'!E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D108E06D-9E52-A947-8DAB-81DC41AC1CCB}" name="risk_x000a_adjusted_x000a_revenue" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{D108E06D-9E52-A947-8DAB-81DC41AC1CCB}" name="risk_x000a_adjusted_x000a_revenue" dataDxfId="2">
       <calculatedColumnFormula>'Shipment Optimization'!F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A19975DE-1E2F-8440-88B8-5DF17CBCBE09}" name="optimization_score" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{A19975DE-1E2F-8440-88B8-5DF17CBCBE09}" name="optimization_score" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{5E610DB9-5CA6-F04D-945D-D984145E6DEB}" name="rank by _x000a_operational efficiency" dataDxfId="0">
       <calculatedColumnFormula>'Shipment Optimization'!H2</calculatedColumnFormula>
     </tableColumn>
@@ -8799,7 +8797,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B2">
@@ -8815,24 +8813,24 @@
         <v>6.2902093812141777E-2</v>
       </c>
       <c r="E2">
-        <f>C2 / B2</f>
+        <f t="shared" ref="E2:E8" si="0">C2 / B2</f>
         <v>33833.394312906217</v>
       </c>
       <c r="F2">
-        <f>C2 * (1 - D2)</f>
+        <f t="shared" ref="F2:F8" si="1">C2 * (1 - D2)</f>
         <v>273172028.78825009</v>
       </c>
       <c r="G2">
-        <f>(C2*0.5) + (F2*0.3) + (E2*0.2)</f>
+        <f t="shared" ref="G2:G8" si="2">(C2*0.5) + (F2*0.3) + (E2*0.2)</f>
         <v>227712638.01533759</v>
       </c>
       <c r="H2">
-        <f>RANK(G2, $G$2:$G$8)</f>
+        <f t="shared" ref="H2:H8" si="3">RANK(G2, $G$2:$G$8)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B3">
@@ -8848,24 +8846,24 @@
         <v>0.16914192515871074</v>
       </c>
       <c r="E3">
-        <f>C3 / B3</f>
+        <f t="shared" si="0"/>
         <v>34167.275665901267</v>
       </c>
       <c r="F3">
-        <f>C3 * (1 - D3)</f>
+        <f t="shared" si="1"/>
         <v>247260846.4452019</v>
       </c>
       <c r="G3">
-        <f>(C3*0.5) + (F3*0.3) + (E3*0.2)</f>
+        <f t="shared" si="2"/>
         <v>222983572.91369376</v>
       </c>
       <c r="H3">
-        <f>RANK(G3, $G$2:$G$8)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B4">
@@ -8881,24 +8879,24 @@
         <v>0.10338529758929806</v>
       </c>
       <c r="E4">
-        <f>C4 / B4</f>
+        <f t="shared" si="0"/>
         <v>33847.276231613352</v>
       </c>
       <c r="F4">
-        <f>C4 * (1 - D4)</f>
+        <f t="shared" si="1"/>
         <v>259960672.52286124</v>
       </c>
       <c r="G4">
-        <f>(C4*0.5) + (F4*0.3) + (E4*0.2)</f>
+        <f t="shared" si="2"/>
         <v>222962855.3121047</v>
       </c>
       <c r="H4">
-        <f>RANK(G4, $G$2:$G$8)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B5">
@@ -8914,24 +8912,24 @@
         <v>0.12580418762428355</v>
       </c>
       <c r="E5">
-        <f>C5 / B5</f>
+        <f t="shared" si="0"/>
         <v>34270.874829049753</v>
       </c>
       <c r="F5">
-        <f>C5 * (1 - D5)</f>
+        <f t="shared" si="1"/>
         <v>254116099.53234881</v>
       </c>
       <c r="G5">
-        <f>(C5*0.5) + (F5*0.3) + (E5*0.2)</f>
+        <f t="shared" si="2"/>
         <v>221584464.18467045</v>
       </c>
       <c r="H5">
-        <f>RANK(G5, $G$2:$G$8)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -8947,24 +8945,24 @@
         <v>0.17635834600538072</v>
       </c>
       <c r="E6">
-        <f>C6 / B6</f>
+        <f t="shared" si="0"/>
         <v>34035.915068635368</v>
       </c>
       <c r="F6">
-        <f>C6 * (1 - D6)</f>
+        <f t="shared" si="1"/>
         <v>243021521.90760276</v>
       </c>
       <c r="G6">
-        <f>(C6*0.5) + (F6*0.3) + (E6*0.2)</f>
+        <f t="shared" si="2"/>
         <v>220441937.62029457</v>
       </c>
       <c r="H6">
-        <f>RANK(G6, $G$2:$G$8)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -8980,24 +8978,24 @@
         <v>0.19379459585916484</v>
       </c>
       <c r="E7">
-        <f>C7 / B7</f>
+        <f t="shared" si="0"/>
         <v>33819.192515912509</v>
       </c>
       <c r="F7">
-        <f>C7 * (1 - D7)</f>
+        <f t="shared" si="1"/>
         <v>235598729.46863872</v>
       </c>
       <c r="G7">
-        <f>(C7*0.5) + (F7*0.3) + (E7*0.2)</f>
+        <f t="shared" si="2"/>
         <v>216802203.94409478</v>
       </c>
       <c r="H7">
-        <f>RANK(G7, $G$2:$G$8)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B8">
@@ -9013,19 +9011,19 @@
         <v>0.16861355395102032</v>
       </c>
       <c r="E8">
-        <f>C8 / B8</f>
+        <f t="shared" si="0"/>
         <v>33932.296181839592</v>
       </c>
       <c r="F8">
-        <f>C8 * (1 - D8)</f>
+        <f t="shared" si="1"/>
         <v>239538336.93549827</v>
       </c>
       <c r="G8">
-        <f>(C8*0.5) + (F8*0.3) + (E8*0.2)</f>
+        <f t="shared" si="2"/>
         <v>215927850.97988585</v>
       </c>
       <c r="H8">
-        <f>RANK(G8, $G$2:$G$8)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
@@ -9500,8 +9498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8F9480-65B8-B04C-87E9-0C01DFBD61E3}">
   <dimension ref="A4:S40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9510,7 +9508,7 @@
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="6.83203125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
     <col min="6" max="6" width="8.83203125" customWidth="1"/>
     <col min="7" max="7" width="31.33203125" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
@@ -9524,50 +9522,58 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="D4" s="21" t="s">
+      <c r="B4" s="23"/>
+      <c r="D4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="G4" s="21" t="s">
+      <c r="E4" s="23"/>
+      <c r="G4" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="P4" s="21" t="s">
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="P4" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
     </row>
     <row r="5" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="27">
         <f>SUM(annual_revenue[total_revenue])</f>
         <v>2045134942.0899999</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="27"/>
       <c r="D5" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="24">
         <f>AVERAGE(delivery_delay_analysis[avg_delay_days])</f>
         <v>0.98571428571428565</v>
       </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="P5" s="3"/>
       <c r="Q5" s="1" t="s">
         <v>50</v>
       </c>
       <c r="R5" t="s">
         <v>48</v>
       </c>
+      <c r="S5" s="28"/>
     </row>
     <row r="6" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
@@ -9601,19 +9607,19 @@
       <c r="G7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="21" t="s">
         <v>78</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="L7" s="27" t="s">
+      <c r="L7" s="21" t="s">
         <v>77</v>
       </c>
       <c r="Q7" s="2" t="s">
@@ -9637,7 +9643,7 @@
         <f>annual_revenue!B20</f>
         <v>-3.9081744684391094E-2</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="11" t="s">
         <v>7</v>
       </c>
       <c r="H8" s="13">
@@ -9677,7 +9683,7 @@
         <f>annual_revenue!B21</f>
         <v>2.6382319254042327E-2</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H9" s="13">
@@ -9717,7 +9723,7 @@
         <f>annual_revenue!B22</f>
         <v>-1.2617378932811828E-2</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="11" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="13">
@@ -9757,7 +9763,7 @@
         <f>annual_revenue!B23</f>
         <v>-0.4155534786218667</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H11" s="13">
@@ -9790,7 +9796,7 @@
       <c r="B12">
         <v>311928357.77999997</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="11" t="s">
         <v>5</v>
       </c>
       <c r="H12" s="13">
@@ -9824,11 +9830,11 @@
       <c r="B13">
         <v>307992639.49000001</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="G13" s="24" t="s">
+      <c r="E13" s="25"/>
+      <c r="G13" s="11" t="s">
         <v>6</v>
       </c>
       <c r="H13" s="13">
@@ -9862,11 +9868,11 @@
       <c r="B14">
         <v>180005226.75999999</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="26">
         <v>310000000</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="G14" s="25" t="s">
+      <c r="E14" s="26"/>
+      <c r="G14" s="19" t="s">
         <v>9</v>
       </c>
       <c r="H14" s="13">
@@ -9987,73 +9993,73 @@
       </c>
     </row>
     <row r="32" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
     </row>
     <row r="33" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G33" s="26" t="s">
+      <c r="G33" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
     </row>
     <row r="34" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G34" s="26" t="s">
+      <c r="G34" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
     </row>
     <row r="35" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G35" s="26" t="s">
+      <c r="G35" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
     </row>
     <row r="36" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G36" s="26" t="s">
+      <c r="G36" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
     </row>
     <row r="37" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G37" s="26" t="s">
+      <c r="G37" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
     </row>
     <row r="38" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G38" s="26" t="s">
+      <c r="G38" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
     </row>
     <row r="40" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data_analysis_tpch.xlsx
+++ b/data_analysis_tpch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a18687/Documents/Code/tpch-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F510EAF0-972D-9543-9507-13418EFCF146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4525557F-C138-B946-A4E5-25CD159A3552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="16380" activeTab="6" xr2:uid="{886EA6A0-5D60-184B-9F8E-BE7191556824}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="16380" activeTab="6" xr2:uid="{886EA6A0-5D60-184B-9F8E-BE7191556824}"/>
   </bookViews>
   <sheets>
     <sheet name="annual_revenue" sheetId="7" r:id="rId1"/>
@@ -294,9 +294,6 @@
     <t>Revenue per shipment is tightly clustered (~33.8K–34.3K), showing minimal pricing differentiation.</t>
   </si>
   <si>
-    <t>Higher delay exposure does not generate higher revenue, weakening the risk-return tradeoff in certain channels.</t>
-  </si>
-  <si>
     <t>REG AIR demonstrates the strongest risk-adjusted performance with the lowest delay impact (6.29%).</t>
   </si>
   <si>
@@ -326,6 +323,9 @@
   </si>
   <si>
     <t>STDEV</t>
+  </si>
+  <si>
+    <t>Lower delay exposure does not generate higher revenue, weakening the risk-return tradeoff in certain channels.</t>
   </si>
 </sst>
 </file>
@@ -2814,7 +2814,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Number of Delayed Shipments and Total Days Delayed</a:t>
+              <a:t>Number of Delayed Shipments and Average Days Delayed</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3395,7 +3395,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1734884437443163"/>
+          <c:y val="0.2501490527515865"/>
+          <c:w val="0.77602281931889894"/>
+          <c:h val="0.59239598299199037"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -7481,15 +7491,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>11442</xdr:colOff>
+      <xdr:colOff>11441</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>34325</xdr:rowOff>
+      <xdr:rowOff>31751</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>2093784</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>164528</xdr:rowOff>
+      <xdr:rowOff>164529</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8756,7 +8766,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8825,7 +8835,7 @@
         <v>227712638.01533759</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H8" si="3">RANK(G2, $G$2:$G$8)</f>
+        <f>RANK(G2, $G$2:$G$8)</f>
         <v>1</v>
       </c>
     </row>
@@ -8858,7 +8868,7 @@
         <v>222983572.91369376</v>
       </c>
       <c r="H3">
-        <f t="shared" si="3"/>
+        <f>RANK(G3, $G$2:$G$8)</f>
         <v>2</v>
       </c>
     </row>
@@ -8891,7 +8901,7 @@
         <v>222962855.3121047</v>
       </c>
       <c r="H4">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H2:H8" si="3">RANK(G4, $G$2:$G$8)</f>
         <v>3</v>
       </c>
     </row>
@@ -9498,8 +9508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8F9480-65B8-B04C-87E9-0C01DFBD61E3}">
   <dimension ref="A4:S40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9608,19 +9618,19 @@
         <v>2</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>70</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>17</v>
@@ -9900,7 +9910,7 @@
         <v>2045134942.0899999</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="16">
         <f>STDEV(H8:H14)</f>
@@ -10015,7 +10025,7 @@
     </row>
     <row r="35" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G35" s="20" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
@@ -10023,7 +10033,7 @@
     </row>
     <row r="36" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G36" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
@@ -10031,7 +10041,7 @@
     </row>
     <row r="37" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G37" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H37" s="20"/>
       <c r="I37" s="20"/>
@@ -10039,7 +10049,7 @@
     </row>
     <row r="38" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G38" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>

--- a/data_analysis_tpch.xlsx
+++ b/data_analysis_tpch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a18687/Documents/Code/tpch-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4525557F-C138-B946-A4E5-25CD159A3552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA6D0C1-3508-9846-8753-4E6172EB003A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="16380" activeTab="6" xr2:uid="{886EA6A0-5D60-184B-9F8E-BE7191556824}"/>
+    <workbookView xWindow="20" yWindow="600" windowWidth="28800" windowHeight="16380" activeTab="6" xr2:uid="{886EA6A0-5D60-184B-9F8E-BE7191556824}"/>
   </bookViews>
   <sheets>
     <sheet name="annual_revenue" sheetId="7" r:id="rId1"/>
@@ -22,6 +22,97 @@
     <sheet name="Dashboard" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Shipment Optimization'!$A$2:$A$8</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Shipment Optimization'!$B$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Shipment Optimization'!$F$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Shipment Optimization'!$F$2:$F$8</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Shipment Optimization'!$G$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Shipment Optimization'!$G$2:$G$8</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Shipment Optimization'!$H$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Shipment Optimization'!$H$2:$H$8</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Shipment Optimization'!$I$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'Shipment Optimization'!$I$2:$I$8</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'Shipment Optimization'!$E$14</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'Shipment Optimization'!$A$2:$A$8</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Shipment Optimization'!$B$2:$B$8</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'Shipment Optimization'!$B$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'Shipment Optimization'!$B$2:$B$8</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'Shipment Optimization'!$C$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'Shipment Optimization'!$C$2:$C$8</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'Shipment Optimization'!$D$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'Shipment Optimization'!$D$2:$D$8</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'Shipment Optimization'!$E$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'Shipment Optimization'!$E$14</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'Shipment Optimization'!$E$2:$E$8</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'Shipment Optimization'!$F$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Shipment Optimization'!$C$1</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'Shipment Optimization'!$F$2:$F$8</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'Shipment Optimization'!$G$1</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'Shipment Optimization'!$G$2:$G$8</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">'Shipment Optimization'!$H$1</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">'Shipment Optimization'!$H$2:$H$8</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">'Shipment Optimization'!$I$1</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">'Shipment Optimization'!$I$2:$I$8</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">'Shipment Optimization'!$A$2:$A$8</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">'Shipment Optimization'!$B$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">'Shipment Optimization'!$B$2:$B$8</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Shipment Optimization'!$C$2:$C$8</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">'Shipment Optimization'!$C$1</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">'Shipment Optimization'!$C$2:$C$8</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">'Shipment Optimization'!$D$1</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">'Shipment Optimization'!$D$2:$D$8</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">'Shipment Optimization'!$E$1</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">'Shipment Optimization'!$E$14</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">'Shipment Optimization'!$E$2:$E$8</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">'Shipment Optimization'!$F$1</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">'Shipment Optimization'!$F$2:$F$8</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">'Shipment Optimization'!$G$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Shipment Optimization'!$D$1</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">'Shipment Optimization'!$G$2:$G$8</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">'Shipment Optimization'!$H$1</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">'Shipment Optimization'!$H$2:$H$8</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">'Shipment Optimization'!$I$1</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">'Shipment Optimization'!$I$2:$I$8</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">'Shipment Optimization'!$A$2</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">'Shipment Optimization'!$A$2:$A$8</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">'Shipment Optimization'!$A$3</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">'Shipment Optimization'!$A$4</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">'Shipment Optimization'!$A$5</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Shipment Optimization'!$D$2:$D$8</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">'Shipment Optimization'!$A$6</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">'Shipment Optimization'!$A$7</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">'Shipment Optimization'!$A$8</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">'Shipment Optimization'!$B$1:$I$1</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">'Shipment Optimization'!$B$2:$I$2</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">'Shipment Optimization'!$B$3:$I$3</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">'Shipment Optimization'!$B$4:$I$4</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">'Shipment Optimization'!$B$5:$I$5</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">'Shipment Optimization'!$B$6:$I$6</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">'Shipment Optimization'!$B$7:$I$7</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Shipment Optimization'!$E$1</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">'Shipment Optimization'!$B$8:$I$8</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">'Shipment Optimization'!$E$12</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">'Shipment Optimization'!$I$2:$I$8</definedName>
+    <definedName name="_xlchart.v1.73" hidden="1">'Shipment Optimization'!$I$2:$I$8</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">Dashboard!$G$14</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">Dashboard!$G$8:$G$13</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">Dashboard!$G$8:$G$14</definedName>
+    <definedName name="_xlchart.v1.77" hidden="1">Dashboard!$H$7</definedName>
+    <definedName name="_xlchart.v1.78" hidden="1">Dashboard!$H$8:$H$14</definedName>
+    <definedName name="_xlchart.v1.79" hidden="1">Dashboard!$I$7</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Shipment Optimization'!$E$14</definedName>
+    <definedName name="_xlchart.v1.80" hidden="1">Dashboard!$I$8:$I$14</definedName>
+    <definedName name="_xlchart.v1.81" hidden="1">Dashboard!$J$7</definedName>
+    <definedName name="_xlchart.v1.82" hidden="1">Dashboard!$J$8:$J$14</definedName>
+    <definedName name="_xlchart.v1.83" hidden="1">Dashboard!$K$7</definedName>
+    <definedName name="_xlchart.v1.84" hidden="1">Dashboard!$K$8:$K$14</definedName>
+    <definedName name="_xlchart.v1.85" hidden="1">Dashboard!$L$19</definedName>
+    <definedName name="_xlchart.v1.86" hidden="1">Dashboard!$L$7</definedName>
+    <definedName name="_xlchart.v1.87" hidden="1">Dashboard!$L$8:$L$14</definedName>
+    <definedName name="_xlchart.v1.88" hidden="1">'Shipment Optimization'!$A$2:$A$8</definedName>
+    <definedName name="_xlchart.v1.89" hidden="1">'Shipment Optimization'!$I$2:$I$8</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Shipment Optimization'!$E$2:$E$8</definedName>
+    <definedName name="_xlchart.v1.90" hidden="1">Dashboard!$L$19</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">annual_revenue!$A$1:$B$8</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">shipmode_analysis!$A$1:$C$8</definedName>
     <definedName name="ExternalData_1" localSheetId="5" hidden="1">top_suppliers!$A$1:$D$6</definedName>
@@ -73,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="91">
   <si>
     <t>year</t>
   </si>
@@ -255,9 +346,6 @@
     <t>Growth %</t>
   </si>
   <si>
-    <t>Expected Revenue?</t>
-  </si>
-  <si>
     <t>TOTAL REVENUE</t>
   </si>
   <si>
@@ -327,6 +415,36 @@
   <si>
     <t>Lower delay exposure does not generate higher revenue, weakening the risk-return tradeoff in certain channels.</t>
   </si>
+  <si>
+    <t>Top10 Concentration Ratio:</t>
+  </si>
+  <si>
+    <t>TOP10 Customer Revenue Share:</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Customer Concentration Index (HHI)</t>
+  </si>
+  <si>
+    <t>Revenue goal met?</t>
+  </si>
+  <si>
+    <t>ship mode</t>
+  </si>
+  <si>
+    <t>revenue at risk</t>
+  </si>
+  <si>
+    <t>No noticeable concentration in customer revenue.</t>
+  </si>
+  <si>
+    <t>Profile is generally diverse.</t>
+  </si>
 </sst>
 </file>
 
@@ -338,7 +456,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="#,##0.00000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -392,6 +510,26 @@
     <font>
       <sz val="12"/>
       <color theme="9" tint="0.79998168889431442"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -485,7 +623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -531,7 +669,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -543,15 +685,47 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="34">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1173,6 +1347,340 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Revenue at Risk</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Shipment Optimization'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>REG AIR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TRUCK</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RAIL</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SHIP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MAIL</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FOB</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AIR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Shipment Optimization'!$I$2:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>17183092.5816916</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41822175.584113806</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26876111.490290068</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31968869.463918723</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42858873.647335216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45657760.562307552</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40389410.298211321</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DE50-7547-9FFB-39BD9FB0C8E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1514620223"/>
+        <c:axId val="1514632767"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1514620223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1514632767"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1514632767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1514620223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="108"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="8"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -1484,7 +1992,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -1844,7 +2352,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -2220,7 +2728,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -2779,7 +3287,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -3319,7 +3827,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -3673,6 +4181,340 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="108"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="8"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Revenue at Risk</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Shipment Optimization'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>REG AIR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TRUCK</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RAIL</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SHIP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MAIL</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FOB</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AIR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Shipment Optimization'!$I$2:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>17183092.5816916</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41822175.584113806</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26876111.490290068</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31968869.463918723</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42858873.647335216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45657760.562307552</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40389410.298211321</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-178A-9546-B634-5A8B4CE7E0CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1514620223"/>
+        <c:axId val="1514632767"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1514620223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1514632767"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1514632767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1514620223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3732,6 +4574,12 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
+  <a:schemeClr val="accent6"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3771,13 +4619,19 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
   <a:schemeClr val="accent6"/>
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
+  <a:schemeClr val="accent6"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
   <a:schemeClr val="accent6"/>
 </cs:colorStyle>
@@ -4300,7 +5154,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4504,22 +5358,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4624,8 +5479,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4757,19 +5612,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5306,7 +6162,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5414,11 +6270,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5429,11 +6280,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -5465,9 +6311,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5822,7 +6665,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5930,6 +6773,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5940,6 +6788,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -5971,6 +6824,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7298,6 +8154,1014 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -7372,6 +9236,47 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>229576</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>191478</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>464038</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>62524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7EECBAC-46D4-3DE4-678B-FD801BC5E6D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7448,7 +9353,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7646,6 +9551,44 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBF231A3-29BD-4E47-B5A3-65050E547A66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7855,7 +9798,7 @@
     <dataField name="Average of Revenue % by Region" fld="4" subtotal="average" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="13">
+    <format dxfId="19">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -7996,16 +9939,16 @@
     <dataField name="Sum of total_revenue" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="17">
+    <format dxfId="23">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="21">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -8060,11 +10003,13 @@
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_2" connectionId="4" xr16:uid="{3550E5F4-765C-0645-A4CF-FD26AE74D826}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="4">
-    <queryTableFields count="3">
+  <queryTableRefresh nextId="6" unboundColumnsRight="2">
+    <queryTableFields count="5">
       <queryTableField id="1" name="C_CUSTKEY" tableColumnId="1"/>
       <queryTableField id="2" name="C_NAME" tableColumnId="2"/>
       <queryTableField id="3" name="total_spent" tableColumnId="3"/>
+      <queryTableField id="4" dataBound="0" tableColumnId="4"/>
+      <queryTableField id="5" dataBound="0" tableColumnId="5"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -8099,7 +10044,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{753FA9CC-DBE5-894C-9125-5488D8123EE6}" name="shipmode_analysis" displayName="shipmode_analysis" ref="A1:C8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:C8" xr:uid="{753FA9CC-DBE5-894C-9125-5488D8123EE6}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5E7EE9D0-5E51-AF42-9671-119AC5F5D0BD}" uniqueName="1" name="ship_mode" queryTableFieldId="1" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{5E7EE9D0-5E51-AF42-9671-119AC5F5D0BD}" uniqueName="1" name="ship_mode" queryTableFieldId="1" dataDxfId="33"/>
     <tableColumn id="2" xr3:uid="{C77FD124-EE00-474A-9EFA-F40AAAA9A4A8}" uniqueName="2" name="shipment_count" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{8E338C52-3199-2F4E-9478-4129ECB916E6}" uniqueName="3" name="total_revenue" queryTableFieldId="3"/>
   </tableColumns>
@@ -8108,16 +10053,50 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D99E92C1-AAC6-CB46-9829-A814993B8266}" name="Table9" displayName="Table9" ref="A1:I8" totalsRowShown="0">
+  <autoFilter ref="A1:I8" xr:uid="{D99E92C1-AAC6-CB46-9829-A814993B8266}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{B7DC3A9F-226D-354A-97BE-52665E75FDFB}" name="ship_mode" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{BD07DB97-464E-B445-939D-2CECF95A62F6}" name="shipment_count">
+      <calculatedColumnFormula>_xlfn.XLOOKUP(A2, shipmode_analysis[ship_mode], shipmode_analysis[shipment_count])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{614AB665-AFB8-794E-BDA9-365305DBED7B}" name="total_revenue">
+      <calculatedColumnFormula>_xlfn.XLOOKUP(A2, shipmode_analysis[ship_mode], shipmode_analysis[total_revenue])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{328E44D0-E9B0-C54E-971F-5C25E85F835D}" name="delay_impact">
+      <calculatedColumnFormula>_xlfn.XLOOKUP(A2,delivery_delay_analysis[ship_mode],delivery_delay_analysis[impact])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{79F5E486-78C2-4E4E-95DF-31D88ABA27E9}" name="revenue_per_shipment">
+      <calculatedColumnFormula>C2 / B2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{4DAA6BD5-32A6-B241-9929-A0C279FB6732}" name="risk_adjusted_revenue">
+      <calculatedColumnFormula>C2 * (1 - D2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{6EB84ABA-C89A-5848-BC69-7D731A0270D3}" name="optimization_score">
+      <calculatedColumnFormula>(C2*0.5) + (F2*0.3) + (E2*0.2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{AF22C21D-E345-9F4A-AC2B-DC77299623AA}" name="rank">
+      <calculatedColumnFormula>RANK(G2, $G$2:$G$8)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{E0975630-CAAB-AF41-B0D5-60FCA806FD08}" name="revenue at risk">
+      <calculatedColumnFormula>F2 * D2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1DD6A7EE-AF9F-4945-B475-29906C0048BA}" name="delivery_delay_analysis" displayName="delivery_delay_analysis" ref="A1:E8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:E8" xr:uid="{1DD6A7EE-AF9F-4945-B475-29906C0048BA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{52929839-0237-0942-B1FA-FA9CC7618657}" uniqueName="1" name="ship_mode" queryTableFieldId="1" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{52929839-0237-0942-B1FA-FA9CC7618657}" uniqueName="1" name="ship_mode" queryTableFieldId="1" dataDxfId="32"/>
     <tableColumn id="2" xr3:uid="{CB0CABB5-039E-5B4B-92F8-87F6B836B3AB}" uniqueName="2" name="delayed_count" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{BDB1200A-C6F9-D949-9F4D-CB480BBAEF37}" uniqueName="3" name="avg_delay_days" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{CAED915A-2363-4F49-8029-BA213002A853}" uniqueName="4" name="total_delay_days" queryTableFieldId="4" dataDxfId="25">
+    <tableColumn id="4" xr3:uid="{CAED915A-2363-4F49-8029-BA213002A853}" uniqueName="4" name="total_delay_days" queryTableFieldId="4" dataDxfId="31">
       <calculatedColumnFormula>delivery_delay_analysis[[#This Row],[delayed_count]]*delivery_delay_analysis[[#This Row],[avg_delay_days]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{12508CE1-32BD-7E48-B01B-BC1CC8F02501}" uniqueName="5" name="impact" queryTableFieldId="5" dataDxfId="24">
+    <tableColumn id="5" xr3:uid="{12508CE1-32BD-7E48-B01B-BC1CC8F02501}" uniqueName="5" name="impact" queryTableFieldId="5" dataDxfId="30">
       <calculatedColumnFormula>delivery_delay_analysis[[#This Row],[total_delay_days]]/SUM(delivery_delay_analysis[total_delay_days])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8125,29 +10104,36 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E048DF31-46A5-CE44-9AA5-FE3CA98DC0E1}" name="top_customers" displayName="top_customers" ref="A1:C11" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C11" xr:uid="{E048DF31-46A5-CE44-9AA5-FE3CA98DC0E1}"/>
-  <tableColumns count="3">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E048DF31-46A5-CE44-9AA5-FE3CA98DC0E1}" name="top_customers" displayName="top_customers" ref="A1:E12" tableType="queryTable" totalsRowCount="1">
+  <autoFilter ref="A1:E11" xr:uid="{E048DF31-46A5-CE44-9AA5-FE3CA98DC0E1}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{44592B59-65AE-C04C-A0C4-2F05805D4334}" uniqueName="1" name="C_CUSTKEY" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{CB96DBEF-21E5-0D47-AA42-1B7D71CBDD19}" uniqueName="2" name="C_NAME" queryTableFieldId="2" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{CB96DBEF-21E5-0D47-AA42-1B7D71CBDD19}" uniqueName="2" name="C_NAME" queryTableFieldId="2" dataDxfId="29" totalsRowDxfId="4"/>
     <tableColumn id="3" xr3:uid="{1CD117CB-A688-3E4B-B4BC-A821C1AB3CF5}" uniqueName="3" name="total_spent" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{12A3ED95-1295-B24E-AA04-DF543614CC43}" uniqueName="4" name="Column1" queryTableFieldId="4" dataDxfId="1" totalsRowDxfId="3">
+      <calculatedColumnFormula>top_customers[[#This Row],[total_spent]]/Dashboard!$A$5 * 100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{797460A3-5ACC-1F4A-9E8F-011DF6181531}" uniqueName="5" name="Column2" totalsRowFunction="custom" queryTableFieldId="5" dataDxfId="5" totalsRowDxfId="2">
+      <calculatedColumnFormula>top_customers[[#This Row],[Column1]]^2</calculatedColumnFormula>
+      <totalsRowFormula>SUM(top_customers[Column2])</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{48E6C0B9-5EF8-8C42-BC22-1E7F4C4D3E34}" name="top_suppliers" displayName="top_suppliers" ref="A1:E7" tableType="queryTable" totalsRowCount="1">
   <autoFilter ref="A1:E6" xr:uid="{48E6C0B9-5EF8-8C42-BC22-1E7F4C4D3E34}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{FD9588B4-028E-454F-937A-ADA4CF9CED49}" uniqueName="1" name="region" queryTableFieldId="1" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{36CC561B-19F6-1B40-B09B-FCAF702E7170}" uniqueName="2" name="supplier" queryTableFieldId="2" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{FD9588B4-028E-454F-937A-ADA4CF9CED49}" uniqueName="1" name="region" queryTableFieldId="1" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{36CC561B-19F6-1B40-B09B-FCAF702E7170}" uniqueName="2" name="supplier" queryTableFieldId="2" dataDxfId="26" totalsRowDxfId="25"/>
     <tableColumn id="3" xr3:uid="{8D8677AB-3330-F942-A193-95809B574D14}" uniqueName="3" name="revenue" totalsRowFunction="custom" queryTableFieldId="3">
       <totalsRowFormula>SUM(top_suppliers[revenue])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{C11E6F8A-3335-C845-BD1F-52B677923885}" uniqueName="4" name="rank" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{282853E3-FC0A-F844-9F06-3C01BD914474}" uniqueName="5" name="Revenue % by Region" queryTableFieldId="5" dataDxfId="18">
+    <tableColumn id="5" xr3:uid="{282853E3-FC0A-F844-9F06-3C01BD914474}" uniqueName="5" name="Revenue % by Region" queryTableFieldId="5" dataDxfId="24">
       <calculatedColumnFormula>C2/top_suppliers[[#Totals],[revenue]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8155,12 +10141,12 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{801B01E8-E277-C447-B28F-54E50E0B5DD8}" name="Table6" displayName="Table6" ref="D5:E11" totalsRowShown="0">
   <autoFilter ref="D5:E11" xr:uid="{801B01E8-E277-C447-B28F-54E50E0B5DD8}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D8F39025-0878-384C-A3AA-54521D664F5E}" name="Year" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{223B1F11-A89E-A846-8B31-EC1E428A9BE0}" name="Growth %" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{D8F39025-0878-384C-A3AA-54521D664F5E}" name="Year" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{223B1F11-A89E-A846-8B31-EC1E428A9BE0}" name="Growth %" dataDxfId="17">
       <calculatedColumnFormula>annual_revenue!B18</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8168,12 +10154,12 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{88E250A0-7F75-3743-9AFB-A5D1EA9F6770}" name="Table7" displayName="Table7" ref="D16:E23" totalsRowShown="0" headerRowDxfId="10">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{88E250A0-7F75-3743-9AFB-A5D1EA9F6770}" name="Table7" displayName="Table7" ref="D16:E23" totalsRowShown="0" headerRowDxfId="16">
   <autoFilter ref="D16:E23" xr:uid="{88E250A0-7F75-3743-9AFB-A5D1EA9F6770}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A8D34284-A5C3-2E44-8E40-9265D82428DB}" name="Year" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{286E5145-79A7-6E46-AC11-7FFADF8E0930}" name="Expected Revenue?" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{A8D34284-A5C3-2E44-8E40-9265D82428DB}" name="Year" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{286E5145-79A7-6E46-AC11-7FFADF8E0930}" name="Revenue goal met?" dataDxfId="14">
       <calculatedColumnFormula>IF(annual_revenue!B2 &gt; Dashboard!$D$14, "YES", "NO")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8181,25 +10167,25 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3C25C563-2642-994D-995D-CAF841BB90EA}" name="Table8" displayName="Table8" ref="G7:L17" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3C25C563-2642-994D-995D-CAF841BB90EA}" name="Table8" displayName="Table8" ref="G7:L17" totalsRowShown="0" headerRowDxfId="13" tableBorderDxfId="12">
   <autoFilter ref="G7:L17" xr:uid="{3C25C563-2642-994D-995D-CAF841BB90EA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G8:L17">
     <sortCondition ref="L7:L17"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C9C3DE5E-BC86-A64E-8C55-E159BD6F1EB3}" name="ship_mode" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{7F6ED71F-4B80-DD44-99EE-4D67A3F50598}" name="total _x000a_delay _x000a_impact" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{C9C3DE5E-BC86-A64E-8C55-E159BD6F1EB3}" name="ship mode" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{7F6ED71F-4B80-DD44-99EE-4D67A3F50598}" name="total _x000a_delay _x000a_impact" dataDxfId="10">
       <calculatedColumnFormula>delivery_delay_analysis!E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{611FC2BF-19D8-5B41-8080-03938B7F5406}" name="revenue _x000a_per _x000a_shipment" dataDxfId="3">
+    <tableColumn id="3" xr3:uid="{611FC2BF-19D8-5B41-8080-03938B7F5406}" name="revenue _x000a_per _x000a_shipment" dataDxfId="9">
       <calculatedColumnFormula>'Shipment Optimization'!E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D108E06D-9E52-A947-8DAB-81DC41AC1CCB}" name="risk_x000a_adjusted_x000a_revenue" dataDxfId="2">
+    <tableColumn id="4" xr3:uid="{D108E06D-9E52-A947-8DAB-81DC41AC1CCB}" name="risk_x000a_adjusted_x000a_revenue" dataDxfId="8">
       <calculatedColumnFormula>'Shipment Optimization'!F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A19975DE-1E2F-8440-88B8-5DF17CBCBE09}" name="optimization_score" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{5E610DB9-5CA6-F04D-945D-D984145E6DEB}" name="rank by _x000a_operational efficiency" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{A19975DE-1E2F-8440-88B8-5DF17CBCBE09}" name="optimization_score" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{5E610DB9-5CA6-F04D-945D-D984145E6DEB}" name="rank by _x000a_operational efficiency" dataDxfId="6">
       <calculatedColumnFormula>'Shipment Optimization'!H2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8643,6 +10629,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -8755,6 +10742,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -8763,24 +10751,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0E27F6-CBF5-3645-B4FC-E03A130B32AC}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
     <col min="7" max="7" width="22.5" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -8791,22 +10780,25 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
         <v>67</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>68</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>69</v>
-      </c>
-      <c r="G1" t="s">
-        <v>70</v>
       </c>
       <c r="H1" t="s">
         <v>14</v>
       </c>
+      <c r="I1" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
@@ -8838,8 +10830,12 @@
         <f>RANK(G2, $G$2:$G$8)</f>
         <v>1</v>
       </c>
+      <c r="I2">
+        <f>F2 * D2</f>
+        <v>17183092.5816916</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
@@ -8871,8 +10867,12 @@
         <f>RANK(G3, $G$2:$G$8)</f>
         <v>2</v>
       </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I8" si="3">F3 * D3</f>
+        <v>41822175.584113806</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
@@ -8901,11 +10901,15 @@
         <v>222962855.3121047</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H2:H8" si="3">RANK(G4, $G$2:$G$8)</f>
+        <f t="shared" ref="H4:H8" si="4">RANK(G4, $G$2:$G$8)</f>
         <v>3</v>
       </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>26876111.490290068</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
@@ -8934,11 +10938,15 @@
         <v>221584464.18467045</v>
       </c>
       <c r="H5">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>31968869.463918723</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
@@ -8967,11 +10975,15 @@
         <v>220441937.62029457</v>
       </c>
       <c r="H6">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>42858873.647335216</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -9000,11 +11012,15 @@
         <v>216802203.94409478</v>
       </c>
       <c r="H7">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>45657760.562307552</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>9</v>
       </c>
@@ -9033,8 +11049,12 @@
         <v>215927850.97988585</v>
       </c>
       <c r="H8">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>40389410.298211321</v>
       </c>
     </row>
   </sheetData>
@@ -9042,6 +11062,11 @@
     <sortCondition ref="H2:H8"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -9071,10 +11096,10 @@
         <v>39</v>
       </c>
       <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
         <v>63</v>
-      </c>
-      <c r="E1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -9218,6 +11243,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -9227,18 +11253,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F44DC0-4869-F14A-B0DD-6FF36A810F7F}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -9248,8 +11278,14 @@
       <c r="C1" t="s">
         <v>27</v>
       </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1489</v>
       </c>
@@ -9259,8 +11295,16 @@
       <c r="C2">
         <v>5203674.05</v>
       </c>
+      <c r="D2">
+        <f>top_customers[[#This Row],[total_spent]]/Dashboard!$A$5 * 100</f>
+        <v>0.25444159908011599</v>
+      </c>
+      <c r="E2">
+        <f>top_customers[[#This Row],[Column1]]^2</f>
+        <v>6.474052734244648E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>214</v>
       </c>
@@ -9270,8 +11314,23 @@
       <c r="C3">
         <v>4503703.9000000004</v>
       </c>
+      <c r="D3">
+        <f>top_customers[[#This Row],[total_spent]]/Dashboard!$A$5 * 100</f>
+        <v>0.22021548834315532</v>
+      </c>
+      <c r="E3">
+        <f>top_customers[[#This Row],[Column1]]^2</f>
+        <v>4.849486130621438E-2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="8">
+        <f>SUM(top_customers[total_spent]) / Dashboard!A5</f>
+        <v>2.1864818442885989E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>73</v>
       </c>
@@ -9281,8 +11340,16 @@
       <c r="C4">
         <v>4466381.05</v>
       </c>
+      <c r="D4">
+        <f>top_customers[[#This Row],[total_spent]]/Dashboard!$A$5 * 100</f>
+        <v>0.21839053052585558</v>
+      </c>
+      <c r="E4">
+        <f>top_customers[[#This Row],[Column1]]^2</f>
+        <v>4.7694423823364661E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1246</v>
       </c>
@@ -9292,8 +11359,16 @@
       <c r="C5">
         <v>4465335.62</v>
       </c>
+      <c r="D5">
+        <f>top_customers[[#This Row],[total_spent]]/Dashboard!$A$5 * 100</f>
+        <v>0.21833941262754558</v>
+      </c>
+      <c r="E5">
+        <f>top_customers[[#This Row],[Column1]]^2</f>
+        <v>4.7672099106541611E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1396</v>
       </c>
@@ -9303,8 +11378,16 @@
       <c r="C6">
         <v>4455381.82</v>
       </c>
+      <c r="D6">
+        <f>top_customers[[#This Row],[total_spent]]/Dashboard!$A$5 * 100</f>
+        <v>0.21785270635720883</v>
+      </c>
+      <c r="E6">
+        <f>top_customers[[#This Row],[Column1]]^2</f>
+        <v>4.7459801667160254E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>643</v>
       </c>
@@ -9314,8 +11397,16 @@
       <c r="C7">
         <v>4363442.67</v>
       </c>
+      <c r="D7">
+        <f>top_customers[[#This Row],[total_spent]]/Dashboard!$A$5 * 100</f>
+        <v>0.21335720104321501</v>
+      </c>
+      <c r="E7">
+        <f>top_customers[[#This Row],[Column1]]^2</f>
+        <v>4.5521295236994871E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1318</v>
       </c>
@@ -9325,8 +11416,16 @@
       <c r="C8">
         <v>4342036.82</v>
       </c>
+      <c r="D8">
+        <f>top_customers[[#This Row],[total_spent]]/Dashboard!$A$5 * 100</f>
+        <v>0.21231052927797078</v>
+      </c>
+      <c r="E8">
+        <f>top_customers[[#This Row],[Column1]]^2</f>
+        <v>4.507576084229209E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1150</v>
       </c>
@@ -9336,8 +11435,16 @@
       <c r="C9">
         <v>4331675.6399999997</v>
       </c>
+      <c r="D9">
+        <f>top_customers[[#This Row],[total_spent]]/Dashboard!$A$5 * 100</f>
+        <v>0.21180390353965095</v>
+      </c>
+      <c r="E9">
+        <f>top_customers[[#This Row],[Column1]]^2</f>
+        <v>4.4860893554633761E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>898</v>
       </c>
@@ -9347,8 +11454,16 @@
       <c r="C10">
         <v>4305984.9000000004</v>
       </c>
+      <c r="D10">
+        <f>top_customers[[#This Row],[total_spent]]/Dashboard!$A$5 * 100</f>
+        <v>0.21054771552627005</v>
+      </c>
+      <c r="E10">
+        <f>top_customers[[#This Row],[Column1]]^2</f>
+        <v>4.4330340513331137E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>943</v>
       </c>
@@ -9358,9 +11473,27 @@
       <c r="C11">
         <v>4278887.7300000004</v>
       </c>
+      <c r="D11">
+        <f>top_customers[[#This Row],[total_spent]]/Dashboard!$A$5 * 100</f>
+        <v>0.20922275796761092</v>
+      </c>
+      <c r="E11">
+        <f>top_customers[[#This Row],[Column1]]^2</f>
+        <v>4.3774162451573499E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29">
+        <f>SUM(top_customers[Column2])</f>
+        <v>0.47962416584455275</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -9372,7 +11505,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9381,6 +11514,7 @@
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -9498,6 +11632,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -9509,73 +11644,74 @@
   <dimension ref="A4:S40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="44.5" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="6.83203125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" customWidth="1"/>
     <col min="6" max="6" width="8.83203125" customWidth="1"/>
     <col min="7" max="7" width="31.33203125" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
     <col min="9" max="9" width="25.1640625" customWidth="1"/>
     <col min="10" max="10" width="18.33203125" customWidth="1"/>
     <col min="11" max="11" width="0.1640625" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" customWidth="1"/>
+    <col min="12" max="12" width="24.6640625" customWidth="1"/>
     <col min="13" max="13" width="1.6640625" customWidth="1"/>
     <col min="14" max="14" width="12.1640625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="2.5" customWidth="1"/>
     <col min="18" max="18" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="D4" s="23" t="s">
+      <c r="A4" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="D4" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="G4" s="23" t="s">
+      <c r="E4" s="24"/>
+      <c r="G4" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="P4" s="23" t="s">
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="P4" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
     </row>
     <row r="5" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27">
+      <c r="A5" s="25">
         <f>SUM(annual_revenue[total_revenue])</f>
         <v>2045134942.0899999</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="25"/>
       <c r="D5" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="26">
         <f>AVERAGE(delivery_delay_analysis[avg_delay_days])</f>
         <v>0.98571428571428565</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="1" t="s">
         <v>50</v>
@@ -9583,7 +11719,7 @@
       <c r="R5" t="s">
         <v>48</v>
       </c>
-      <c r="S5" s="28"/>
+      <c r="S5" s="23"/>
     </row>
     <row r="6" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
@@ -9615,22 +11751,22 @@
         <v>-8.6566622719487626E-4</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>17</v>
@@ -9660,15 +11796,16 @@
         <f>'Shipment Optimization'!D2</f>
         <v>6.2902093812141777E-2</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="12">
         <f>'Shipment Optimization'!E2</f>
         <v>33833.394312906217</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="12">
         <f>'Shipment Optimization'!F2</f>
         <v>273172028.78825009</v>
       </c>
-      <c r="L8">
+      <c r="K8" s="12"/>
+      <c r="L8" s="12">
         <f>'Shipment Optimization'!H2</f>
         <v>1</v>
       </c>
@@ -9700,15 +11837,16 @@
         <f>'Shipment Optimization'!D3</f>
         <v>0.16914192515871074</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="12">
         <f>'Shipment Optimization'!E3</f>
         <v>34167.275665901267</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="12">
         <f>'Shipment Optimization'!F3</f>
         <v>247260846.4452019</v>
       </c>
-      <c r="L9">
+      <c r="K9" s="12"/>
+      <c r="L9" s="12">
         <f>'Shipment Optimization'!H3</f>
         <v>2</v>
       </c>
@@ -9740,15 +11878,16 @@
         <f>'Shipment Optimization'!D4</f>
         <v>0.10338529758929806</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="12">
         <f>'Shipment Optimization'!E4</f>
         <v>33847.276231613352</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="12">
         <f>'Shipment Optimization'!F4</f>
         <v>259960672.52286124</v>
       </c>
-      <c r="L10">
+      <c r="K10" s="12"/>
+      <c r="L10" s="12">
         <f>'Shipment Optimization'!H4</f>
         <v>3</v>
       </c>
@@ -9780,15 +11919,16 @@
         <f>'Shipment Optimization'!D5</f>
         <v>0.12580418762428355</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="12">
         <f>'Shipment Optimization'!E5</f>
         <v>34270.874829049753</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="12">
         <f>'Shipment Optimization'!F5</f>
         <v>254116099.53234881</v>
       </c>
-      <c r="L11">
+      <c r="K11" s="12"/>
+      <c r="L11" s="12">
         <f>'Shipment Optimization'!H5</f>
         <v>4</v>
       </c>
@@ -9813,15 +11953,16 @@
         <f>'Shipment Optimization'!D6</f>
         <v>0.17635834600538072</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="12">
         <f>'Shipment Optimization'!E6</f>
         <v>34035.915068635368</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="12">
         <f>'Shipment Optimization'!F6</f>
         <v>243021521.90760276</v>
       </c>
-      <c r="L12">
+      <c r="K12" s="12"/>
+      <c r="L12" s="12">
         <f>'Shipment Optimization'!H6</f>
         <v>5</v>
       </c>
@@ -9840,10 +11981,10 @@
       <c r="B13">
         <v>307992639.49000001</v>
       </c>
-      <c r="D13" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="25"/>
+      <c r="D13" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="27"/>
       <c r="G13" s="11" t="s">
         <v>6</v>
       </c>
@@ -9851,15 +11992,16 @@
         <f>'Shipment Optimization'!D7</f>
         <v>0.19379459585916484</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="12">
         <f>'Shipment Optimization'!E7</f>
         <v>33819.192515912509</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="12">
         <f>'Shipment Optimization'!F7</f>
         <v>235598729.46863872</v>
       </c>
-      <c r="L13">
+      <c r="K13" s="12"/>
+      <c r="L13" s="12">
         <f>'Shipment Optimization'!H7</f>
         <v>6</v>
       </c>
@@ -9878,10 +12020,10 @@
       <c r="B14">
         <v>180005226.75999999</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="28">
         <v>310000000</v>
       </c>
-      <c r="E14" s="26"/>
+      <c r="E14" s="28"/>
       <c r="G14" s="19" t="s">
         <v>9</v>
       </c>
@@ -9889,15 +12031,16 @@
         <f>'Shipment Optimization'!D8</f>
         <v>0.16861355395102032</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="12">
         <f>'Shipment Optimization'!E8</f>
         <v>33932.296181839592</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="12">
         <f>'Shipment Optimization'!F8</f>
         <v>239538336.93549827</v>
       </c>
-      <c r="L14">
+      <c r="K14" s="12"/>
+      <c r="L14" s="12">
         <f>'Shipment Optimization'!H8</f>
         <v>7</v>
       </c>
@@ -9910,7 +12053,7 @@
         <v>2045134942.0899999</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H15" s="16">
         <f>STDEV(H8:H14)</f>
@@ -9922,17 +12065,17 @@
         <v>42</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H16" s="16">
         <f>SUM(H8:H14) / COUNT(H8:H14)</f>
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D17" s="11">
         <v>1992</v>
       </c>
@@ -9941,14 +12084,14 @@
         <v>NO</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H17" s="16">
         <f>H15/H16</f>
         <v>0.32972993246682791</v>
       </c>
     </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D18" s="11">
         <v>1993</v>
       </c>
@@ -9957,7 +12100,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D19" s="11">
         <v>1994</v>
       </c>
@@ -9966,7 +12109,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D20" s="11">
         <v>1995</v>
       </c>
@@ -9975,7 +12118,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D21" s="11">
         <v>1996</v>
       </c>
@@ -9984,7 +12127,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D22" s="11">
         <v>1997</v>
       </c>
@@ -9993,7 +12136,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D23" s="11">
         <v>1998</v>
       </c>
@@ -10002,74 +12145,104 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="32" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="31">
+        <f>top_customers!G3</f>
+        <v>2.1864818442885989E-2</v>
+      </c>
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G33" s="20" t="s">
+    <row r="33" spans="1:10" ht="22" x14ac:dyDescent="0.3">
+      <c r="A33" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="30">
+        <f>top_customers[[#Totals],[Column2]]</f>
+        <v>0.47962416584455275</v>
+      </c>
+      <c r="G33" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+    </row>
+    <row r="34" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A34" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="33"/>
+      <c r="G34" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
     </row>
-    <row r="34" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G34" s="20" t="s">
+    <row r="35" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A35" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="33"/>
+      <c r="G35" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+    </row>
+    <row r="36" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="G36" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
     </row>
-    <row r="35" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G35" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
+    <row r="37" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+      <c r="G37" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
     </row>
-    <row r="36" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G36" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
+    <row r="38" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+      <c r="G38" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
     </row>
-    <row r="37" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G37" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
+    <row r="39" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
     </row>
-    <row r="38" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G38" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="40" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G40" s="20"/>
       <c r="H40" s="20"/>
       <c r="I40" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="G4:L4"/>
     <mergeCell ref="G5:L5"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
